--- a/Documentation/Asset List.xlsx
+++ b/Documentation/Asset List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\David\source\repos\IGME.671\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AC40F1-4A90-45A8-9B27-85669E6B7A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A527C-1C6B-4702-A047-A3098FE99F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -70,9 +70,6 @@
     <t>https://freesound.org/people/harrybates01/sounds/254366/</t>
   </si>
   <si>
-    <t>In-game, bugged</t>
-  </si>
-  <si>
     <t>breathing</t>
   </si>
   <si>
@@ -136,22 +133,13 @@
     <t>music</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>game over</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>wind gust</t>
   </si>
   <si>
     <t>ambient</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>https://freesound.org/people/toiletrolltube/sounds/179498/
@@ -167,9 +155,6 @@
     <t>wood creak</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/tbhicba/sounds/148335/
 https://freesound.org/people/tbhicba/sounds/148334/</t>
   </si>
@@ -177,9 +162,6 @@
     <t>forest noises</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/Breviceps/sounds/465697/
 https://freesound.org/people/freemaster2/sounds/187669/</t>
   </si>
@@ -200,6 +182,12 @@
   </si>
   <si>
     <t>https://freesound.org/people/launemax/sounds/274768/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/phoenixdk/sounds/80407/</t>
+  </si>
+  <si>
+    <t>whoosh</t>
   </si>
 </sst>
 </file>
@@ -514,7 +502,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -526,7 +514,7 @@
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -560,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -577,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -591,235 +579,229 @@
         <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>9</v>
@@ -827,18 +809,24 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Asset List.xlsx
+++ b/Documentation/Asset List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A527C-1C6B-4702-A047-A3098FE99F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F1B139-3BCD-4189-9A36-60D42FD61D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -181,13 +181,28 @@
     <t>metal collision</t>
   </si>
   <si>
-    <t>https://freesound.org/people/launemax/sounds/274768/</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/phoenixdk/sounds/80407/</t>
   </si>
   <si>
     <t>whoosh</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Gammelsmurfen778/sounds/474007/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/JohnsonBrandEditing/sounds/173944/</t>
+  </si>
+  <si>
+    <t>shriek (upon death)</t>
+  </si>
+  <si>
+    <t>Victory bells</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/loopsamples.club/sounds/483383/</t>
+  </si>
+  <si>
+    <t>The player collects bells to win, so the victory chime is the sound of several bells.</t>
   </si>
 </sst>
 </file>
@@ -499,10 +514,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -604,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>47</v>
@@ -624,7 +639,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
@@ -811,6 +826,9 @@
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
@@ -822,11 +840,39 @@
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
-        <v>52</v>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -836,6 +882,7 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{65BA944D-A6C0-4ED2-A641-FEFF1A2A72B7}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{3B04602D-25EA-42E7-B473-A0ED3184A434}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
